--- a/biology/Botanique/Quercus_gilva/Quercus_gilva.xlsx
+++ b/biology/Botanique/Quercus_gilva/Quercus_gilva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus gilva est une espèce d'arbres à feuilles persistantes de la famille des Fagaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition naturelle de Quercus gilva comprend Honshu (à l'ouest de Kanto), Shikoku, Kyushu, Jeju-do, Taïwan et une partie de la Chine. Ces chênes sont souvent plantés dans les sanctuaires comme dans le parc de Nara.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce peut atteindre jusqu'à 30 m de haut. L'écorce, gris foncé et lisse se craquelle avec l'âge. Les feuilles lancéolées coriaces se terminent en pointe. Leurs bord est serrée à partir du milieu de la feuille. La floraison se produit en avril-mai. C'est une espèce monoïque.
 </t>
@@ -573,7 +589,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gland comestible, contenant peu de tanins, est consommable sans être cuit. Son bois est utilisé comme matériaux de construction.
 </t>
